--- a/files/Fight Club.xlsx
+++ b/files/Fight Club.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{287548E8-F3A0-4A7A-BBE8-94A2DAAFC8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2318488-8B56-424B-BC17-47611BF1841B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="735" windowWidth="22140" windowHeight="13200" xr2:uid="{05B69504-E768-412D-824E-3515363319EF}"/>
+    <workbookView xWindow="21727" yWindow="2953" windowWidth="7500" windowHeight="6627" activeTab="1" xr2:uid="{05B69504-E768-412D-824E-3515363319EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Wk 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wk2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>FightClub!</t>
   </si>
@@ -130,6 +131,33 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Memorize 1 Corinthians 13:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No sugar </t>
+  </si>
+  <si>
+    <t>Right actions often lead to right emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-it notes around the house </t>
+  </si>
+  <si>
+    <t>Accountabiliy Questions</t>
+  </si>
+  <si>
+    <t>Read Chapter one and post on band app</t>
+  </si>
+  <si>
+    <t>Put last name on long side of block and post</t>
+  </si>
+  <si>
+    <t>Do a timed Mile/w friends and post on band</t>
   </si>
 </sst>
 </file>
@@ -192,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +239,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,17 +557,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425D508E-0041-4740-BDDA-649F59976A9C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.87890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -548,7 +578,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C2" s="1">
         <v>43895</v>
       </c>
@@ -571,7 +601,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
@@ -594,7 +624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -608,7 +638,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B5" s="7"/>
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -620,7 +650,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -631,7 +661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>6</v>
@@ -640,7 +670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -648,7 +678,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -662,7 +692,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>10</v>
@@ -677,7 +707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>11</v>
@@ -692,7 +722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>12</v>
@@ -707,7 +737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -721,7 +751,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -732,7 +762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>17</v>
@@ -741,7 +771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -752,7 +782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>21</v>
@@ -761,7 +791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -772,7 +802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>23</v>
@@ -781,7 +811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>24</v>
@@ -806,4 +836,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA216734-89E0-4896-87D7-B427F67A7F3C}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="11.46875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.64453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C2" s="1">
+        <v>43895</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43896</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43897</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43898</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43899</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43900</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="2"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/Fight Club.xlsx
+++ b/files/Fight Club.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2318488-8B56-424B-BC17-47611BF1841B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D433D1F7-50BC-40E9-8EA2-57507D02D353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21727" yWindow="2953" windowWidth="7500" windowHeight="6627" activeTab="1" xr2:uid="{05B69504-E768-412D-824E-3515363319EF}"/>
+    <workbookView xWindow="3870" yWindow="735" windowWidth="22140" windowHeight="13200" activeTab="1" xr2:uid="{05B69504-E768-412D-824E-3515363319EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Wk 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>FightClub!</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Do a timed Mile/w friends and post on band</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -230,6 +233,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,8 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,24 +564,24 @@
       <selection activeCell="B6" sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.87890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>43895</v>
       </c>
@@ -601,7 +604,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
@@ -624,34 +627,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -661,8 +664,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -670,16 +673,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -692,8 +695,8 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -707,8 +710,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -722,8 +725,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -737,7 +740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -751,8 +754,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
@@ -762,8 +765,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -771,8 +774,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
@@ -782,8 +785,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -791,8 +794,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -802,8 +805,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -811,8 +814,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -843,27 +846,27 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.46875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>43895</v>
       </c>
@@ -886,7 +889,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
@@ -909,193 +912,216 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.5">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/files/Fight Club.xlsx
+++ b/files/Fight Club.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D433D1F7-50BC-40E9-8EA2-57507D02D353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097A9E1-6129-45CC-AE19-A9EB9EA60D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="735" windowWidth="22140" windowHeight="13200" activeTab="1" xr2:uid="{05B69504-E768-412D-824E-3515363319EF}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{05B69504-E768-412D-824E-3515363319EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Wk 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>FightClub!</t>
   </si>
@@ -564,13 +564,13 @@
       <selection activeCell="B6" sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.87890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C2" s="1">
         <v>43895</v>
       </c>
@@ -604,7 +604,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
@@ -627,7 +627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>1</v>
@@ -653,7 +653,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -664,7 +664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>6</v>
@@ -673,7 +673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -681,7 +681,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>10</v>
@@ -710,7 +710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>11</v>
@@ -725,7 +725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -765,7 +765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>17</v>
@@ -774,7 +774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -785,7 +785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="8"/>
       <c r="B17" t="s">
         <v>21</v>
@@ -794,7 +794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
@@ -805,7 +805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>23</v>
@@ -814,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>24</v>
@@ -846,16 +846,16 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C2" s="1">
         <v>43895</v>
       </c>
@@ -889,7 +889,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
@@ -912,7 +912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>1</v>
@@ -938,7 +938,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -963,7 +963,9 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="5" t="s">
         <v>42</v>
       </c>
@@ -974,7 +976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>11</v>
@@ -982,7 +984,9 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
@@ -993,7 +997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>41</v>
@@ -1001,7 +1005,9 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>35</v>
@@ -1025,7 +1031,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1046,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1061,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>38</v>
@@ -1070,7 +1076,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1086,7 +1092,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1109,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1113,7 +1119,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>

--- a/files/Fight Club.xlsx
+++ b/files/Fight Club.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097A9E1-6129-45CC-AE19-A9EB9EA60D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAC5C66-7453-4FC1-AEE8-6DD70C5285F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{05B69504-E768-412D-824E-3515363319EF}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="2040" windowHeight="585" activeTab="2" xr2:uid="{05B69504-E768-412D-824E-3515363319EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Wk 1" sheetId="1" r:id="rId1"/>
     <sheet name="Wk2" sheetId="2" r:id="rId2"/>
+    <sheet name="Wk3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="52">
   <si>
     <t>FightClub!</t>
   </si>
@@ -161,6 +163,33 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Memorize Philippians 4:6</t>
+  </si>
+  <si>
+    <t>Sign up for prayer for this Sunday</t>
+  </si>
+  <si>
+    <t>Eat Vegetables</t>
+  </si>
+  <si>
+    <t>Time for thinks I Enjoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message or Call Family 3x </t>
+  </si>
+  <si>
+    <t>Read Chapter 2</t>
+  </si>
+  <si>
+    <t>Research Shield</t>
+  </si>
+  <si>
+    <t>Nehemiah 4:13-23</t>
+  </si>
+  <si>
+    <t>Ephesians 6:10-20</t>
   </si>
 </sst>
 </file>
@@ -564,13 +593,13 @@
       <selection activeCell="B6" sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.87890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
@@ -581,7 +610,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>43895</v>
       </c>
@@ -604,7 +633,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
@@ -627,7 +656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -641,7 +670,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>1</v>
@@ -653,7 +682,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -664,7 +693,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>6</v>
@@ -673,7 +702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -681,7 +710,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -695,7 +724,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>10</v>
@@ -710,7 +739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>11</v>
@@ -725,7 +754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>12</v>
@@ -740,7 +769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -754,7 +783,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -765,7 +794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>17</v>
@@ -774,7 +803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
@@ -785,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" t="s">
         <v>21</v>
@@ -794,7 +823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
@@ -805,7 +834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
         <v>23</v>
@@ -814,7 +843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>24</v>
@@ -845,17 +874,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA216734-89E0-4896-87D7-B427F67A7F3C}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.41015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
@@ -866,7 +895,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>43895</v>
       </c>
@@ -889,7 +918,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
@@ -912,7 +941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -926,7 +955,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>1</v>
@@ -938,7 +967,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -953,7 +982,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -963,20 +992,20 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>11</v>
@@ -984,20 +1013,20 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>41</v>
@@ -1018,7 +1047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>35</v>
@@ -1031,7 +1060,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +1075,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1061,7 +1090,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>38</v>
@@ -1076,7 +1105,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1085,14 +1114,13 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1109,7 +1137,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1119,7 +1147,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1140,4 +1168,328 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB69974F-76C8-43CF-8A61-C81AB62FE16B}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>43909</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43910</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43911</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43912</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43913</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43914</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>